--- a/Results/Plot data/ipcc_ar6_figure_direct_indirect_emissions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_direct_indirect_emissions.xlsx
@@ -1,256 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\AR6-Emissions-trends-and-drivers\Results\Plot data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="direct emissions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="indirect emissions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="indirect emissions - subsectors" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="direct emissions" sheetId="2" r:id="rId2"/>
+    <sheet name="indirect emissions" sheetId="3" r:id="rId3"/>
+    <sheet name="indirect emissions - subsectors" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William F. Lamb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-07 13:37:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GtCO2eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sector_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFOLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity &amp; heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_indirect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsector_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum refining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum refining (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal mining fugitive emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal mining fugitive emissions (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas fugitive emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas fugitive emissions (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (energy systems)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (energy systems) (4.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemicals (6.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metals (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (industry)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (industry) (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice cultivation (CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice cultivation (CH4) (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enteric Fermentation (CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enteric Fermentation (CH4) (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2 (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland Shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland Shipping (0.3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>William F. Lamb</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>2022-02-07 13:37:47</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>GtCO2eq</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>sector_title</t>
+  </si>
+  <si>
+    <t>AFOLU</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Electricity &amp; heat</t>
+  </si>
+  <si>
+    <t>Energy systems</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>CO2_indirect</t>
+  </si>
+  <si>
+    <t>subsector_title</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Petroleum refining</t>
+  </si>
+  <si>
+    <t>Petroleum refining (1.1%)</t>
+  </si>
+  <si>
+    <t>Coal mining fugitive emissions</t>
+  </si>
+  <si>
+    <t>Coal mining fugitive emissions (2.2%)</t>
+  </si>
+  <si>
+    <t>Oil and gas fugitive emissions</t>
+  </si>
+  <si>
+    <t>Oil and gas fugitive emissions (4.4%)</t>
+  </si>
+  <si>
+    <t>Other (energy systems)</t>
+  </si>
+  <si>
+    <t>Other (energy systems) (4.7%)</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Cement (2.6%)</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Waste (3.9%)</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Chemicals (6.3%)</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Metals (7.8%)</t>
+  </si>
+  <si>
+    <t>Other (industry)</t>
+  </si>
+  <si>
+    <t>Other (industry) (13%)</t>
+  </si>
+  <si>
+    <t>Biomass burning (CH4, N2O)</t>
+  </si>
+  <si>
+    <t>Biomass burning (CH4, N2O) (0.12%)</t>
+  </si>
+  <si>
+    <t>Manure management (N2O, CH4)</t>
+  </si>
+  <si>
+    <t>Manure management (N2O, CH4) (0.72%)</t>
+  </si>
+  <si>
+    <t>Synthetic fertilizer application (N2O)</t>
+  </si>
+  <si>
+    <t>Synthetic fertilizer application (N2O) (0.75%)</t>
+  </si>
+  <si>
+    <t>Rice cultivation (CH4)</t>
+  </si>
+  <si>
+    <t>Rice cultivation (CH4) (1.7%)</t>
+  </si>
+  <si>
+    <t>Managed soils and pasture (CO2, N2O)</t>
+  </si>
+  <si>
+    <t>Managed soils and pasture (CO2, N2O) (2.5%)</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation (CH4)</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation (CH4) (5%)</t>
+  </si>
+  <si>
+    <t>LULUCF CO2</t>
+  </si>
+  <si>
+    <t>LULUCF CO2 (11%)</t>
+  </si>
+  <si>
+    <t>Inland Shipping</t>
+  </si>
+  <si>
+    <t>Inland Shipping (0.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t xml:space="preserve">Rail  (0.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (transport)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (transport) (0.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Aviation (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Shipping (1.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-CO2 (all buildings)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-residential (5.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential (11%)</t>
+    <t>Rail  (0.43%)</t>
+  </si>
+  <si>
+    <t>Domestic Aviation</t>
+  </si>
+  <si>
+    <t>Domestic Aviation (0.67%)</t>
+  </si>
+  <si>
+    <t>Other (transport)</t>
+  </si>
+  <si>
+    <t>Other (transport) (0.9%)</t>
+  </si>
+  <si>
+    <t>International Aviation</t>
+  </si>
+  <si>
+    <t>International Aviation (1.1%)</t>
+  </si>
+  <si>
+    <t>International Shipping</t>
+  </si>
+  <si>
+    <t>International Shipping (1.3%)</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Road (10%)</t>
+  </si>
+  <si>
+    <t>Non-CO2 (all buildings)</t>
+  </si>
+  <si>
+    <t>Non-CO2 (all buildings) (0.073%)</t>
+  </si>
+  <si>
+    <t>Non-residential</t>
+  </si>
+  <si>
+    <t>Non-residential (5.8%)</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Residential (11%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,13 +288,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -606,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -614,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -622,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -632,19 +652,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -655,87 +677,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.9775309663637</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>3.3032662688635801</v>
+      </c>
+      <c r="C3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>13.8392696618948</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <f>SUM(B4:B5)/B9</f>
+        <v>0.33811702522910342</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>6.1402766237465096</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>14.112205732662799</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="n">
-        <v>8.71807557408101</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>8.7180755740810092</v>
+      </c>
+      <c r="C7">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>SUM(B2:B7)</f>
+        <v>59.090624827612402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -752,189 +788,282 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>6.1402766237465096</v>
+      </c>
+      <c r="D2">
+        <v>7.3019804049961703</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F10" si="0">D2/$C$13</f>
+        <v>0.12357257054394921</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G10" si="1">D2/$C$12</f>
+        <v>0.12377467969564798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.16170378124966</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>7.3019804049961703</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12357257054394921</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12377467969564798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>14.112205732662799</v>
+      </c>
+      <c r="D4">
+        <v>20.025390501133799</v>
+      </c>
+      <c r="E4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33889285414657105</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33944713044726499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.91318476847108</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>5.9131847684710799</v>
+      </c>
+      <c r="D5">
+        <v>20.025390501133799</v>
+      </c>
+      <c r="E5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33889285414657105</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33944713044726499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12.9775309663637</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>12.9775309663637</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21962081132537697</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21998001220367044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>12.9775309663637</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21962081132537697</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21998001220367044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.71807557408101</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8">
+        <v>8.7180755740810092</v>
+      </c>
+      <c r="D8">
+        <v>8.9413661458648406</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15131615500681994</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15156364018570817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.223290571783821</v>
       </c>
-      <c r="D9" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>8.9413661458648406</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15131615500681994</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15156364018570817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10">
+        <v>3.3032662688635801</v>
+      </c>
+      <c r="D10">
+        <v>9.7478689323582799</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1649647293592876</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1652345374677073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.4446026634947</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11">
+        <v>6.4446026634946998</v>
+      </c>
+      <c r="D11">
+        <v>9.7478689323582799</v>
+      </c>
+      <c r="E11">
         <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11/$C$13</f>
+        <v>0.1649647293592876</v>
+      </c>
+      <c r="G11" s="2">
+        <f>D11/$C$12</f>
+        <v>0.1652345374677073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>58.994136950716857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>SUM('direct emissions'!B2:B7)</f>
+        <v>59.090624827612402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -951,450 +1080,484 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.629138706260922</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+      <c r="C2">
+        <v>0.62913870626092205</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.27885470039701</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.2</v>
+      <c r="C3">
+        <v>1.2788547003970101</v>
+      </c>
+      <c r="D3">
+        <v>2.2000000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.62003212670528</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.4</v>
+      <c r="C4">
+        <v>2.6200321267052802</v>
+      </c>
+      <c r="D4">
+        <v>4.4000000000000004</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.77395487163296</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>2.7739548716329598</v>
+      </c>
+      <c r="D5">
         <v>4.7</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.5483146679</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1.5483146678999999</v>
+      </c>
+      <c r="D6">
         <v>2.6</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.32670399008267</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>2.3267039900826698</v>
+      </c>
+      <c r="D7">
         <v>3.9</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.70068510843741</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>3.7006851084374102</v>
+      </c>
+      <c r="D8">
         <v>6.3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.59677161771698</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>4.5967716177169802</v>
+      </c>
+      <c r="D9">
         <v>7.8</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="n">
-        <v>7.85291511699677</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>7.8529151169967699</v>
+      </c>
+      <c r="D10">
         <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0682785057617064</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>6.8278505761706396E-2</v>
+      </c>
+      <c r="D11">
         <v>0.12</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.426016532913334</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.42601653291333402</v>
+      </c>
+      <c r="D12">
         <v>0.72</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.443006868072477</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.44300686807247702</v>
+      </c>
+      <c r="D13">
         <v>0.75</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.01757779807094</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.7</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.45580903462043</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2.5</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.96180337932477</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.6050388476</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>6.6050388476000004</v>
+      </c>
+      <c r="D17">
         <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.176709821781149</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.3</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.253872814464669</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.25387281446466903</v>
+      </c>
+      <c r="D19">
         <v>0.43</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.394138112810141</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.39413811281014099</v>
+      </c>
+      <c r="D20">
         <v>0.67</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.532234093251387</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.53223409325138704</v>
+      </c>
+      <c r="D21">
         <v>0.9</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.620824495451895</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.1</v>
+      <c r="D22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.780617168336543</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.78061716833654304</v>
+      </c>
+      <c r="D23">
         <v>1.3</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.18296963976905</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>6.1829696397690501</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0428828735760605</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.073</v>
+      <c r="C25">
+        <v>4.28828735760605E-2</v>
+      </c>
+      <c r="D25">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="H25">
+        <f>C25/$C$29</f>
+        <v>7.2690060051025822E-4</v>
+      </c>
+      <c r="I25">
+        <f>C25/$C$30</f>
+        <v>7.2571365933537743E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.45280160975202</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5.8</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="H26">
+        <f t="shared" ref="H26:H27" si="0">C26/$C$29</f>
+        <v>5.8527877314934834E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I27" si="1">C26/$C$30</f>
+        <v>5.8432308336982819E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="n">
-        <v>6.2521844490302</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>6.2521844490302003</v>
+      </c>
+      <c r="D27">
         <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.10597975955226221</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.10580670736296942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>58.994136950716857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>59.090624827612402</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Results/Plot data/ipcc_ar6_figure_direct_indirect_emissions.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_direct_indirect_emissions.xlsx
@@ -1,265 +1,256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\AR6-Emissions-trends-and-drivers\Results\Plot data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" r:id="rId1"/>
-    <sheet name="direct emissions" sheetId="2" r:id="rId2"/>
-    <sheet name="indirect emissions" sheetId="3" r:id="rId3"/>
-    <sheet name="indirect emissions - subsectors" sheetId="4" r:id="rId4"/>
+    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="direct emissions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="indirect emissions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indirect emissions - subsectors" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>William F. Lamb</t>
-  </si>
-  <si>
-    <t>Last update</t>
-  </si>
-  <si>
-    <t>2022-02-07 13:37:47</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>GHG</t>
-  </si>
-  <si>
-    <t>GtCO2eq</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>sector_title</t>
-  </si>
-  <si>
-    <t>AFOLU</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Electricity &amp; heat</t>
-  </si>
-  <si>
-    <t>Energy systems</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>CO2_indirect</t>
-  </si>
-  <si>
-    <t>subsector_title</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Petroleum refining</t>
-  </si>
-  <si>
-    <t>Petroleum refining (1.1%)</t>
-  </si>
-  <si>
-    <t>Coal mining fugitive emissions</t>
-  </si>
-  <si>
-    <t>Coal mining fugitive emissions (2.2%)</t>
-  </si>
-  <si>
-    <t>Oil and gas fugitive emissions</t>
-  </si>
-  <si>
-    <t>Oil and gas fugitive emissions (4.4%)</t>
-  </si>
-  <si>
-    <t>Other (energy systems)</t>
-  </si>
-  <si>
-    <t>Other (energy systems) (4.7%)</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Cement (2.6%)</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Waste (3.9%)</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Chemicals (6.3%)</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Metals (7.8%)</t>
-  </si>
-  <si>
-    <t>Other (industry)</t>
-  </si>
-  <si>
-    <t>Other (industry) (13%)</t>
-  </si>
-  <si>
-    <t>Biomass burning (CH4, N2O)</t>
-  </si>
-  <si>
-    <t>Biomass burning (CH4, N2O) (0.12%)</t>
-  </si>
-  <si>
-    <t>Manure management (N2O, CH4)</t>
-  </si>
-  <si>
-    <t>Manure management (N2O, CH4) (0.72%)</t>
-  </si>
-  <si>
-    <t>Synthetic fertilizer application (N2O)</t>
-  </si>
-  <si>
-    <t>Synthetic fertilizer application (N2O) (0.75%)</t>
-  </si>
-  <si>
-    <t>Rice cultivation (CH4)</t>
-  </si>
-  <si>
-    <t>Rice cultivation (CH4) (1.7%)</t>
-  </si>
-  <si>
-    <t>Managed soils and pasture (CO2, N2O)</t>
-  </si>
-  <si>
-    <t>Managed soils and pasture (CO2, N2O) (2.5%)</t>
-  </si>
-  <si>
-    <t>Enteric Fermentation (CH4)</t>
-  </si>
-  <si>
-    <t>Enteric Fermentation (CH4) (5%)</t>
-  </si>
-  <si>
-    <t>LULUCF CO2</t>
-  </si>
-  <si>
-    <t>LULUCF CO2 (11%)</t>
-  </si>
-  <si>
-    <t>Inland Shipping</t>
-  </si>
-  <si>
-    <t>Inland Shipping (0.3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William F. Lamb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01 14:46:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GtCO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sector_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFOLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity &amp; heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_indirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subsector_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum refining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum refining (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining fugitive emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining fugitive emissions (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and gas fugitive emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and gas fugitive emissions (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (energy systems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (energy systems) (4.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals (6.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metals (7.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (industry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (industry) (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation (CH4) (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric Fermentation (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric Fermentation (CH4) (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2 (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland Shipping (0.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t>Rail  (0.43%)</t>
-  </si>
-  <si>
-    <t>Domestic Aviation</t>
-  </si>
-  <si>
-    <t>Domestic Aviation (0.67%)</t>
-  </si>
-  <si>
-    <t>Other (transport)</t>
-  </si>
-  <si>
-    <t>Other (transport) (0.9%)</t>
-  </si>
-  <si>
-    <t>International Aviation</t>
-  </si>
-  <si>
-    <t>International Aviation (1.1%)</t>
-  </si>
-  <si>
-    <t>International Shipping</t>
-  </si>
-  <si>
-    <t>International Shipping (1.3%)</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>Road (10%)</t>
-  </si>
-  <si>
-    <t>Non-CO2 (all buildings)</t>
-  </si>
-  <si>
-    <t>Non-CO2 (all buildings) (0.073%)</t>
-  </si>
-  <si>
-    <t>Non-residential</t>
-  </si>
-  <si>
-    <t>Non-residential (5.8%)</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Residential (11%)</t>
+    <t xml:space="preserve">Rail  (0.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (transport) (0.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Aviation (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Shipping (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-CO2 (all buildings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential (5.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (11%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,24 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -587,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -618,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -626,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -634,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -642,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -652,21 +632,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -677,101 +655,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>12.977463795473</v>
+      </c>
+      <c r="C2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>3.3032662688635801</v>
-      </c>
-      <c r="C3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="n">
+        <v>3.30326626886358</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>13.8392696618948</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="D4">
-        <f>SUM(B4:B5)/B9</f>
-        <v>0.33811702522910342</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>6.1402766237465096</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>6.14027662374651</v>
+      </c>
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>14.112205732662799</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>14.1122057326628</v>
+      </c>
+      <c r="C6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>8.7180755740810092</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>8.71807557408101</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>SUM(B2:B7)</f>
-        <v>59.090624827612402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -788,282 +752,189 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>6.1402766237465096</v>
-      </c>
-      <c r="D2">
-        <v>7.3019804049961703</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="n">
+        <v>6.14027662374651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F10" si="0">D2/$C$13</f>
-        <v>0.12357257054394921</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G10" si="1">D2/$C$12</f>
-        <v>0.12377467969564798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1.16170378124966</v>
       </c>
-      <c r="D3">
-        <v>7.3019804049961703</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E3" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12357257054394921</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12377467969564798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>14.112205732662799</v>
-      </c>
-      <c r="D4">
-        <v>20.025390501133799</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>14.1122057326628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E4" t="n">
         <v>34</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33889285414657105</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33944713044726499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>5.9131847684710799</v>
-      </c>
-      <c r="D5">
-        <v>20.025390501133799</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>5.91318476847108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33889285414657105</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33944713044726499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="D6">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="n">
+        <v>12.977463795473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.977463795473</v>
+      </c>
+      <c r="E6" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21962081132537697</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.21998001220367044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="E7">
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>12.977463795473</v>
+      </c>
+      <c r="E7" t="n">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21962081132537697</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.21998001220367044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>8.7180755740810092</v>
-      </c>
-      <c r="D8">
-        <v>8.9413661458648406</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="n">
+        <v>8.71807557408101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E8" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15131615500681994</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15156364018570817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.223290571783821</v>
       </c>
-      <c r="D9">
-        <v>8.9413661458648406</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E9" t="n">
         <v>15</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15131615500681994</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15156364018570817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>3.3032662688635801</v>
-      </c>
-      <c r="D10">
-        <v>9.7478689323582799</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>3.30326626886358</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E10" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1649647293592876</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1652345374677073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>6.4446026634946998</v>
-      </c>
-      <c r="D11">
-        <v>9.7478689323582799</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>6.4446026634947</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E11" t="n">
         <v>16</v>
-      </c>
-      <c r="F11" s="2">
-        <f>D11/$C$13</f>
-        <v>0.1649647293592876</v>
-      </c>
-      <c r="G11" s="2">
-        <f>D11/$C$12</f>
-        <v>0.1652345374677073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f>SUM(C2:C11)</f>
-        <v>58.994136950716857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>SUM('direct emissions'!B2:B7)</f>
-        <v>59.090624827612402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1080,484 +951,450 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>0.62913870626092205</v>
-      </c>
-      <c r="D2">
-        <v>1.1000000000000001</v>
+      <c r="C2" t="n">
+        <v>0.629138706260922</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
-        <v>1.2788547003970101</v>
-      </c>
-      <c r="D3">
-        <v>2.2000000000000002</v>
+      <c r="C3" t="n">
+        <v>1.27885470039701</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>2.6200321267052802</v>
-      </c>
-      <c r="D4">
-        <v>4.4000000000000004</v>
+      <c r="C4" t="n">
+        <v>2.62003212670528</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.4</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5">
-        <v>2.7739548716329598</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="n">
+        <v>2.77395487163296</v>
+      </c>
+      <c r="D5" t="n">
         <v>4.7</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
-        <v>1.5483146678999999</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>1.5483146679</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.6</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7">
-        <v>2.3267039900826698</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>2.32670399008267</v>
+      </c>
+      <c r="D7" t="n">
         <v>3.9</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>3.7006851084374102</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>3.70068510843741</v>
+      </c>
+      <c r="D8" t="n">
         <v>6.3</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
-        <v>4.5967716177169802</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>4.59677161771698</v>
+      </c>
+      <c r="D9" t="n">
         <v>7.8</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10">
-        <v>7.8529151169967699</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>7.85291511699677</v>
+      </c>
+      <c r="D10" t="n">
         <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>6.8278505761706396E-2</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>0.0682785057617064</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.12</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12">
-        <v>0.42601653291333402</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="n">
+        <v>0.426016532913334</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.72</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
-        <v>0.44300686807247702</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>0.443006868072477</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.75</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>1.01757779807094</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1.7</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>1.45580903462043</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>2.5</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>2.96180337932477</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17">
-        <v>6.6050388476000004</v>
-      </c>
-      <c r="D17">
+      <c r="C17" t="n">
+        <v>6.60497167670933</v>
+      </c>
+      <c r="D17" t="n">
         <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.176709821781149</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.3</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19">
-        <v>0.25387281446466903</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="n">
+        <v>0.253872814464669</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.43</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="C20">
-        <v>0.39413811281014099</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="n">
+        <v>0.394138112810141</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.67</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21">
-        <v>0.53223409325138704</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="n">
+        <v>0.532234093251387</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.9</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.620824495451895</v>
       </c>
-      <c r="D22">
-        <v>1.1000000000000001</v>
+      <c r="D22" t="n">
+        <v>1.1</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23">
-        <v>0.78061716833654304</v>
-      </c>
-      <c r="D23">
+      <c r="C23" t="n">
+        <v>0.780617168336543</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.3</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24">
-        <v>6.1829696397690501</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="n">
+        <v>6.18296963976905</v>
+      </c>
+      <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C25">
-        <v>4.28828735760605E-2</v>
-      </c>
-      <c r="D25">
-        <v>7.2999999999999995E-2</v>
+      <c r="C25" t="n">
+        <v>0.0428828735760605</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.073</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="H25">
-        <f>C25/$C$29</f>
-        <v>7.2690060051025822E-4</v>
-      </c>
-      <c r="I25">
-        <f>C25/$C$30</f>
-        <v>7.2571365933537743E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>3.45280160975202</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>5.8</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H27" si="0">C26/$C$29</f>
-        <v>5.8527877314934834E-2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:I27" si="1">C26/$C$30</f>
-        <v>5.8432308336982819E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27">
-        <v>6.2521844490302003</v>
-      </c>
-      <c r="D27">
+      <c r="C27" t="n">
+        <v>6.2521844490302</v>
+      </c>
+      <c r="D27" t="n">
         <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0.10597975955226221</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>0.10580670736296942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>58.994136950716857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>59.090624827612402</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>